--- a/ChiSq.xlsx
+++ b/ChiSq.xlsx
@@ -1,22 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ecallahan2\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gcallah/GitProjects/statistics/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8160"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="31100" windowHeight="20660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="9">
   <si>
     <r>
       <t>f</t>
@@ -65,6 +71,18 @@
   </si>
   <si>
     <t>Probability</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
+    <t>Diamonds</t>
+  </si>
+  <si>
+    <t>Clubs</t>
+  </si>
+  <si>
+    <t>Spades</t>
   </si>
 </sst>
 </file>
@@ -393,22 +411,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="8" max="8" width="22.28515625" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="11.83203125" customWidth="1"/>
+    <col min="8" max="8" width="22.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" ht="17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -419,7 +437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
@@ -430,34 +448,34 @@
         <v>16.670000000000002</v>
       </c>
       <c r="D2">
-        <f>(B2 - C2)^2</f>
+        <f t="shared" ref="D2:D7" si="0">(B2 - C2)^2</f>
         <v>1.7688999999999955</v>
       </c>
       <c r="E2">
-        <f>D2/C2</f>
+        <f t="shared" ref="E2:E7" si="1">D2/C2</f>
         <v>0.10611277744451082</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="C3">
         <v>16.670000000000002</v>
       </c>
       <c r="D3">
-        <f>(B3 - C3)^2</f>
-        <v>11.088899999999988</v>
+        <f t="shared" si="0"/>
+        <v>177.68889999999996</v>
       </c>
       <c r="E3">
-        <f>D3/C3</f>
-        <v>0.66520095980803762</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>10.659202159568084</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
@@ -468,15 +486,15 @@
         <v>16.670000000000002</v>
       </c>
       <c r="D4">
-        <f>(B4 - C4)^2</f>
+        <f t="shared" si="0"/>
         <v>0.4489000000000023</v>
       </c>
       <c r="E4">
-        <f>D4/C4</f>
+        <f t="shared" si="1"/>
         <v>2.6928614277144707E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
@@ -487,34 +505,34 @@
         <v>16.670000000000002</v>
       </c>
       <c r="D5">
-        <f>(B5 - C5)^2</f>
+        <f t="shared" si="0"/>
         <v>0.10889999999999887</v>
       </c>
       <c r="E5">
-        <f>D5/C5</f>
+        <f t="shared" si="1"/>
         <v>6.53269346130767E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>16.670000000000002</v>
       </c>
       <c r="D6">
-        <f>(B6 - C6)^2</f>
-        <v>7.1289000000000087</v>
+        <f t="shared" si="0"/>
+        <v>160.52890000000005</v>
       </c>
       <c r="E6">
-        <f>D6/C6</f>
-        <v>0.42764847030593928</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>9.6298080383923228</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
@@ -525,15 +543,15 @@
         <v>16.670000000000002</v>
       </c>
       <c r="D7">
-        <f>(B7 - C7)^2</f>
+        <f t="shared" si="0"/>
         <v>2.7889000000000057</v>
       </c>
       <c r="E7">
-        <f>D7/C7</f>
+        <f t="shared" si="1"/>
         <v>0.16730053989202193</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="B8">
         <f>SUM(B2:B7)</f>
         <v>100</v>
@@ -543,14 +561,121 @@
       </c>
       <c r="E8">
         <f>SUM(E2:E7)</f>
-        <v>1.399724055188962</v>
+        <v>20.595884823035391</v>
       </c>
       <c r="G8" t="s">
         <v>4</v>
       </c>
       <c r="H8">
         <f>_xlfn.CHISQ.TEST(B2:B7,C2:C7)</f>
-        <v>0.92434345582330046</v>
+        <v>9.6552702398277246E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>6</v>
+      </c>
+      <c r="C12">
+        <v>6</v>
+      </c>
+      <c r="D12">
+        <f t="shared" ref="D12:D15" si="2">(B12 - C12)^2</f>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:E15" si="3">D12/C12</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>0.16666666666666666</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14">
+        <v>4</v>
+      </c>
+      <c r="C14">
+        <v>6</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>6</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <f>SUM(B12:B15)</f>
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2</v>
+      </c>
+      <c r="E16">
+        <f>SUM(E12:E15)</f>
+        <v>2.333333333333333</v>
+      </c>
+      <c r="G16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H16">
+        <f>_xlfn.CHISQ.TEST(B12:B15,C12:C15)</f>
+        <v>0.50616521909390855</v>
       </c>
     </row>
   </sheetData>
